--- a/public/allo-kapri-catalog.xlsx
+++ b/public/allo-kapri-catalog.xlsx
@@ -1,62 +1,210 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Desktop/pasta sem nome/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54EA937D-40AD-1341-8723-4B14052A6C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="8880" yWindow="4100" windowWidth="19160" windowHeight="12280" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="products" sheetId="1" r:id="rId1"/>
+    <sheet name="prices_usados" sheetId="2" r:id="rId2"/>
+    <sheet name="prices_novos" sheetId="6" r:id="rId3"/>
+    <sheet name="prices_macbook" sheetId="3" r:id="rId4"/>
+    <sheet name="prices_ipad" sheetId="4" r:id="rId5"/>
+    <sheet name="prices_acessorios" sheetId="5" r:id="rId6"/>
+    <sheet name="colors" sheetId="7" r:id="rId7"/>
+    <sheet name="storages" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="57">
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>storage_gb</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>IP13-128-BLK</t>
-  </si>
-  <si>
-    <t>MBA-2020-8/256</t>
-  </si>
-  <si>
-    <t>AW-SE-44</t>
-  </si>
-  <si>
-    <t>iPhone 13 128GB Preto</t>
-  </si>
-  <si>
-    <t>MacBook Air 2020 8/256</t>
-  </si>
-  <si>
-    <t>Apple Watch SE 44mm</t>
-  </si>
-  <si>
-    <t>520 000 Kz</t>
-  </si>
-  <si>
-    <t>650 000 Kz</t>
-  </si>
-  <si>
-    <t>230 000 Kz</t>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>disponibilidade</t>
+  </si>
+  <si>
+    <t>iPhone XR</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>usado</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>iPhone 11</t>
+  </si>
+  <si>
+    <t>iPhone 12</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 11 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone 12 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 12 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone 13</t>
+  </si>
+  <si>
+    <t>iPhone 13 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 13 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone 14</t>
+  </si>
+  <si>
+    <t>iPhone 14 Plus</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone 15</t>
+  </si>
+  <si>
+    <t>iPhone 15 Plus</t>
+  </si>
+  <si>
+    <t>iPhone 15 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 15 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone 16</t>
+  </si>
+  <si>
+    <t>iPhone 16 Plus</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro Max</t>
+  </si>
+  <si>
+    <t>ipad</t>
+  </si>
+  <si>
+    <t>airpods</t>
+  </si>
+  <si>
+    <t>acessorios</t>
+  </si>
+  <si>
+    <t>apple watch</t>
+  </si>
+  <si>
+    <t>novo</t>
+  </si>
+  <si>
+    <t>color_hex</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
+    <t>macbook air 2015</t>
+  </si>
+  <si>
+    <t>macbook</t>
+  </si>
+  <si>
+    <t>macbook pro 2015</t>
+  </si>
+  <si>
+    <t>macbook pro  touch bar 2018</t>
+  </si>
+  <si>
+    <t>macbook pro touch bar 2018</t>
+  </si>
+  <si>
+    <t>macbook pro  touch bar 2019</t>
+  </si>
+  <si>
+    <t>macbook pro  touch bar 2020</t>
+  </si>
+  <si>
+    <t>iPad 10</t>
+  </si>
+  <si>
+    <t>iPad 11</t>
+  </si>
+  <si>
+    <t>iPad Air</t>
+  </si>
+  <si>
+    <t>iPad Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acessorio </t>
+  </si>
+  <si>
+    <t>Cabo  Adaptador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +220,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -81,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,28 +265,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +347,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -197,6 +381,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,9 +416,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,55 +592,2866 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A72" sqref="A68:G72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>255500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>128</v>
+      </c>
+      <c r="E3">
+        <v>289500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>64</v>
+      </c>
+      <c r="E4">
+        <v>275550</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>128</v>
+      </c>
+      <c r="E5">
+        <v>295500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>128</v>
+      </c>
+      <c r="E6">
+        <v>309500</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>355500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>256</v>
+      </c>
+      <c r="E8">
+        <v>399500</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>375500</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>256</v>
+      </c>
+      <c r="E10">
+        <v>409500</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>335500</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>369500</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>128</v>
+      </c>
+      <c r="E13">
+        <v>405500</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>256</v>
+      </c>
+      <c r="E14">
+        <v>449500</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>495500</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>256</v>
+      </c>
+      <c r="E16">
+        <v>519500</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <v>455000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>256</v>
+      </c>
+      <c r="E18">
+        <v>499500</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>128</v>
+      </c>
+      <c r="E19">
+        <v>545500</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>256</v>
+      </c>
+      <c r="E20">
+        <v>595550</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>128</v>
+      </c>
+      <c r="E21">
+        <v>645500</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>256</v>
+      </c>
+      <c r="E22">
+        <v>695500</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>128</v>
+      </c>
+      <c r="E23">
+        <v>505500</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>256</v>
+      </c>
+      <c r="E24">
+        <v>565500</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>128</v>
+      </c>
+      <c r="E25">
+        <v>585500</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>256</v>
+      </c>
+      <c r="E26">
+        <v>635500</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>128</v>
+      </c>
+      <c r="E27">
+        <v>595500</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>256</v>
+      </c>
+      <c r="E28">
+        <v>635500</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>128</v>
+      </c>
+      <c r="E29">
+        <v>705000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>256</v>
+      </c>
+      <c r="E30">
+        <v>769500</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>128</v>
+      </c>
+      <c r="E31">
+        <v>655500</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>256</v>
+      </c>
+      <c r="E32">
+        <v>705500</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>128</v>
+      </c>
+      <c r="E33">
+        <v>685500</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>256</v>
+      </c>
+      <c r="E34">
+        <v>745500</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>256</v>
+      </c>
+      <c r="E35">
+        <v>785500</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>512</v>
+      </c>
+      <c r="E36">
+        <v>835500</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>256</v>
+      </c>
+      <c r="E37">
+        <v>905500</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>512</v>
+      </c>
+      <c r="E38">
+        <v>995500</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>128</v>
+      </c>
+      <c r="E39">
+        <v>845500</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>256</v>
+      </c>
+      <c r="E40">
+        <v>895500</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>128</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>256</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>256</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>512</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>256</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>512</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>120</v>
+      </c>
+      <c r="E47">
+        <v>275500</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>250</v>
+      </c>
+      <c r="E48">
+        <v>305500</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>120</v>
+      </c>
+      <c r="E49">
+        <v>355500</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>250</v>
+      </c>
+      <c r="E50">
+        <v>375500</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>128</v>
+      </c>
+      <c r="E51">
+        <v>485500</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>250</v>
+      </c>
+      <c r="E52">
+        <v>525500</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>500</v>
+      </c>
+      <c r="E53">
+        <v>585500</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>120</v>
+      </c>
+      <c r="E54">
+        <v>615500</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>250</v>
+      </c>
+      <c r="E55">
+        <v>645500</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>500</v>
+      </c>
+      <c r="E56">
+        <v>685500</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1000</v>
+      </c>
+      <c r="E57">
+        <v>705500</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>120</v>
+      </c>
+      <c r="E58">
+        <v>675500</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>250</v>
+      </c>
+      <c r="E59">
+        <v>695500</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>500</v>
+      </c>
+      <c r="E60">
+        <v>725500</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>1000</v>
+      </c>
+      <c r="E61">
+        <v>795500</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>64</v>
+      </c>
+      <c r="E62">
+        <v>505000</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>256</v>
+      </c>
+      <c r="E63">
+        <v>595500</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>64</v>
+      </c>
+      <c r="E64">
+        <v>655500</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>256</v>
+      </c>
+      <c r="E65">
+        <v>699500</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>256</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>128</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>256</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>256</v>
+      </c>
+      <c r="E9">
+        <v>575000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>465500</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>128</v>
+      </c>
+      <c r="E11">
+        <v>505500</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>575500</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>256</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>128</v>
+      </c>
+      <c r="E14">
+        <v>635500</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>256</v>
+      </c>
+      <c r="E15">
+        <v>685500</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>128</v>
+      </c>
+      <c r="E16">
+        <v>565500</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>256</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>256</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>128</v>
+      </c>
+      <c r="E20">
+        <v>805000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>256</v>
+      </c>
+      <c r="E21">
+        <v>845500</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>128</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>256</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>256</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>128</v>
+      </c>
+      <c r="E26">
+        <v>815500</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>256</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>256</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>256</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>128</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>256</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>256</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>512</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>256</v>
+      </c>
+      <c r="E35">
+        <v>1200500</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>512</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>128</v>
+      </c>
+      <c r="E37">
+        <v>975500</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>256</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>256</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>256</v>
+      </c>
+      <c r="E41">
+        <v>1305500</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>512</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>256</v>
+      </c>
+      <c r="E43">
+        <v>1450500</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>512</v>
+      </c>
+      <c r="E44">
+        <v>1545500</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>15500</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>8500</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="A2:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="A2:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>256</v>
+      </c>
+      <c r="E2">
+        <v>122222</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>512</v>
+      </c>
+      <c r="E3">
+        <v>122222</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
